--- a/analisis_consumos/resultados/Resumen_de_Clusters_por_Algoritmo.xlsx
+++ b/analisis_consumos/resultados/Resumen_de_Clusters_por_Algoritmo.xlsx
@@ -1,22 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcos Boj\Desktop\GitHub-TFM\analisis_consumos\resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE91E1D0-5294-4B7D-B819-8967A7D4A2F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AAB14F8-F14C-46BB-8513-0449EF7804D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-16200" windowWidth="14610" windowHeight="15585" xr2:uid="{F60BFC8B-6EFF-448C-80BF-F645298F57E9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{F60BFC8B-6EFF-448C-80BF-F645298F57E9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Resumen_de_Clusters_por_Algorit" sheetId="1" r:id="rId1"/>
+    <sheet name="resumen" sheetId="7" r:id="rId1"/>
+    <sheet name="Resumen_de_Clusters_todo" sheetId="1" r:id="rId2"/>
+    <sheet name="Resumen_de_Clusters_verano" sheetId="3" r:id="rId3"/>
+    <sheet name="Resumen_de_Clusters_inv" sheetId="4" r:id="rId4"/>
+    <sheet name="Resumen_de_Clusters_mayo_24" sheetId="6" r:id="rId5"/>
+    <sheet name="Resumen_de_Clusters_oct_24" sheetId="9" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Resumen_de_Clusters_por_Algorit!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">resumen!$A$6:$X$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Resumen_de_Clusters_inv!$A$1:$N$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Resumen_de_Clusters_mayo_24!$A$1:$N$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Resumen_de_Clusters_oct_24!$A$1:$N$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Resumen_de_Clusters_todo!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Resumen_de_Clusters_verano!$A$1:$N$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="168">
   <si>
     <t>Modelo</t>
   </si>
@@ -183,6 +193,363 @@
   </si>
   <si>
     <t>azul</t>
+  </si>
+  <si>
+    <t>Consumo medio, repartido y estable</t>
+  </si>
+  <si>
+    <t>['media_consumo', 'sum_consumo', 'Tarde', 'Noche']</t>
+  </si>
+  <si>
+    <t>Consumo medio-alto, con fuerte uso en tarde/noche, estacional</t>
+  </si>
+  <si>
+    <t>['media_consumo', 'Tarde', 'Noche', 's_verano']</t>
+  </si>
+  <si>
+    <t>Consumo alto, muy estacional y concentrado por la tarde</t>
+  </si>
+  <si>
+    <t>['media_consumo', 'sum_consumo', 'Tarde', 's_verano', 'std_Tarde']</t>
+  </si>
+  <si>
+    <t>Consumo medio, regular en horarios y con ligera estacionalidad</t>
+  </si>
+  <si>
+    <t>Consumo medio-alto, uso fuerte tarde-noche, estacionalidad marcada</t>
+  </si>
+  <si>
+    <t>['media_consumo', 'Noche', 's_verano', 'sum_consumo']</t>
+  </si>
+  <si>
+    <t>Consumo muy alto, con gran variabilidad estacional</t>
+  </si>
+  <si>
+    <t>['media_consumo', 'sum_consumo', 'Tarde', 'std_verano']</t>
+  </si>
+  <si>
+    <t>Consumo medio, distribuido en tarde y noche</t>
+  </si>
+  <si>
+    <t>Consumo medio-alto, con fuerte carga estacional y horario nocturno</t>
+  </si>
+  <si>
+    <t>['media_consumo', 'Tarde', 'std_verano', 'sum_consumo']</t>
+  </si>
+  <si>
+    <t>['media_consumo', 'Tarde', 'Mañana', 'sum_consumo']</t>
+  </si>
+  <si>
+    <t>Consumo bajo, constante, y con baja dispersión</t>
+  </si>
+  <si>
+    <t>['media_consumo', 'std_consumo', 'Mañana', 'Madrugada']</t>
+  </si>
+  <si>
+    <t>Consumo bajo y muy regular, estable todo el día</t>
+  </si>
+  <si>
+    <t>['media_consumo', 'std_consumo', 'Mañana', 'Noche']</t>
+  </si>
+  <si>
+    <t>Consumo bajo, muy homogéneo, sin estacionalidad</t>
+  </si>
+  <si>
+    <t>['media_consumo', 'std_consumo', 'Mañana', 'sum_consumo']</t>
+  </si>
+  <si>
+    <t>Consumo medio, repartido durante el día, más marcado por la tarde y noche</t>
+  </si>
+  <si>
+    <t>Consumo medio-alto, más intenso en todas las franjas, especialmente noche. Estacional</t>
+  </si>
+  <si>
+    <t>['media_consumo', 'Noche', 'sum_consumo', 's_Noche']</t>
+  </si>
+  <si>
+    <t>Consumo bajo y muy estable, sin franjas horarias dominantes</t>
+  </si>
+  <si>
+    <t>Consumo alto, concentrado en tarde y noche, fuerte estacionalidad</t>
+  </si>
+  <si>
+    <t>['media_consumo', 'Tarde', 'Noche', 's_invierno']</t>
+  </si>
+  <si>
+    <t>Consumo bajo, estable, sin patrón fuerte por franja ni día</t>
+  </si>
+  <si>
+    <t>Consumo medio, homogéneo con ligera preferencia vespertina y nocturna</t>
+  </si>
+  <si>
+    <t>Consumo alto, tarde y noche predominantes, comportamiento más estacional</t>
+  </si>
+  <si>
+    <t>['media_consumo', 'Tarde', 'Noche', 's_Tarde']</t>
+  </si>
+  <si>
+    <t>Consumo medio-bajo, uso más repartido con algo de preferencia nocturna</t>
+  </si>
+  <si>
+    <t>Consumo muy bajo, muy estable, sin dominancia horaria</t>
+  </si>
+  <si>
+    <t>Consumo medio, bastante equilibrado, ligera tendencia a tarde-noche</t>
+  </si>
+  <si>
+    <t>Consumo alto, marcado en tarde y noche, alta variabilidad, estacionalidad evidente</t>
+  </si>
+  <si>
+    <t>Consumo medio-bajo, regular, uso repartido con énfasis leve en noche</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FJAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ATF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JACL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MTTA</t>
+  </si>
+  <si>
+    <t>ATF</t>
+  </si>
+  <si>
+    <t>Consumo medio, uso equilibrado pero más visible por la noche</t>
+  </si>
+  <si>
+    <t>['media_consumo', 'Noche', 'sum_consumo']</t>
+  </si>
+  <si>
+    <t>Consumo bajo, muy estable, sin un patrón horario definido</t>
+  </si>
+  <si>
+    <t>Consumo medio, con ligera preferencia nocturna, moderada variabilidad</t>
+  </si>
+  <si>
+    <t>['media_consumo', 'Noche', 'std_consumo', 'sum_consumo']</t>
+  </si>
+  <si>
+    <t>Consumo muy alto, marcado por tarde-noche, fuerte fin de semana</t>
+  </si>
+  <si>
+    <t>['media_consumo', 'Tarde', 'Noche', 's_Sábado', 'sum_consumo']</t>
+  </si>
+  <si>
+    <t>Consumo bajo, regular y estable, sin franjas destacadas</t>
+  </si>
+  <si>
+    <t>Consumo medio, ligero predominio en noche y uso en fin de semana</t>
+  </si>
+  <si>
+    <t>['media_consumo', 'Noche', 'Fin de semana', 'sum_consumo']</t>
+  </si>
+  <si>
+    <t>Consumo muy alto, enfocado en tarde y noche, claramente de fin de semana</t>
+  </si>
+  <si>
+    <t>Consumo medio-alto, reparto más equilibrado en las franjas, con algo de uso nocturno</t>
+  </si>
+  <si>
+    <t>Consumo bajo, sin gran variación diaria ni horaria</t>
+  </si>
+  <si>
+    <t>Consumo medio, cierto énfasis nocturno, algo más presente en fin de semana</t>
+  </si>
+  <si>
+    <t>['media_consumo', 'Noche', 's_Domingo', 'sum_consumo']</t>
+  </si>
+  <si>
+    <t>Consumo muy alto, tarde-noche, muy concentrado en fin de semana</t>
+  </si>
+  <si>
+    <t>Consumo medio-alto, uso más distribuido, con ligera nocturnidad</t>
+  </si>
+  <si>
+    <t>todo</t>
+  </si>
+  <si>
+    <t>Agg</t>
+  </si>
+  <si>
+    <t>Kmeans</t>
+  </si>
+  <si>
+    <t>verano</t>
+  </si>
+  <si>
+    <t>casas</t>
+  </si>
+  <si>
+    <t>FMB</t>
+  </si>
+  <si>
+    <t>GPC</t>
+  </si>
+  <si>
+    <t>JLG</t>
+  </si>
+  <si>
+    <t>JMM</t>
+  </si>
+  <si>
+    <t>LFZA</t>
+  </si>
+  <si>
+    <t>MANA</t>
+  </si>
+  <si>
+    <t>MBGV</t>
+  </si>
+  <si>
+    <t>PAA</t>
+  </si>
+  <si>
+    <t>RFM</t>
+  </si>
+  <si>
+    <t>RTF</t>
+  </si>
+  <si>
+    <t>inv</t>
+  </si>
+  <si>
+    <t>MTTA</t>
+  </si>
+  <si>
+    <t>BAJO</t>
+  </si>
+  <si>
+    <t>MEDIO -BAJO</t>
+  </si>
+  <si>
+    <t>MEDIO-ALTO</t>
+  </si>
+  <si>
+    <t>ALTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ABLD</t>
+  </si>
+  <si>
+    <t>Consumo muy bajo y homogéneo, con actividad leve por la mañana y noche</t>
+  </si>
+  <si>
+    <t>['media_consumo', 'sum_consumo', 'Mañana', 'Noche']</t>
+  </si>
+  <si>
+    <t>Consumo medio-bajo, con reparto estable durante el día y sin picos importantes</t>
+  </si>
+  <si>
+    <t>['media_consumo', 'Tarde', 'sum_consumo', 'Madrugada']</t>
+  </si>
+  <si>
+    <t>Consumo alto y estacional, fuerte uso en tarde/noche, especialmente fines de semana</t>
+  </si>
+  <si>
+    <t>['media_consumo', 'Tarde', 'Noche', 's_Sábado']</t>
+  </si>
+  <si>
+    <t>Consumo medio-alto, dominante por la noche y fines de semana, perfil extendido</t>
+  </si>
+  <si>
+    <t>Consumo medio-alto, más equilibrado, fuerte por la noche y regularidad semanal</t>
+  </si>
+  <si>
+    <t>['media_consumo', 'Noche', 'sum_consumo', 'Tarde']</t>
+  </si>
+  <si>
+    <t>Consumo medio-bajo, matutino, con poca actividad de madrugada</t>
+  </si>
+  <si>
+    <t>['media_consumo', 'Mañana', 'Mediodia', 'Madrugada']</t>
+  </si>
+  <si>
+    <t>Consumo alto y disperso, picos notables, elevado en fines de semana y noches</t>
+  </si>
+  <si>
+    <t>['media_consumo', 'Tarde', 's_Sábado', 'Noche']</t>
+  </si>
+  <si>
+    <t>Consumo muy bajo y plano, baja varianza y poca diferenciación horaria</t>
+  </si>
+  <si>
+    <t>['media_consumo', 'sum_consumo', 'Mañana', 'Mediodia']</t>
+  </si>
+  <si>
+    <t>Consumo muy bajo, estable y distribuido suavemente en el día</t>
+  </si>
+  <si>
+    <t>Consumo medio, con énfasis nocturno y cierta regularidad semanal</t>
+  </si>
+  <si>
+    <t>Consumo alto y estacional, mucha varianza, fuerte por la tarde y fines de semana</t>
+  </si>
+  <si>
+    <t>['media_consumo', 'Tarde', 's_Sábado', 'sum_consumo']</t>
+  </si>
+  <si>
+    <t>Consumo medio-alto, muy nocturno y con gran presencia en fines de semana</t>
+  </si>
+  <si>
+    <t>['media_consumo', 'Noche', 's_Domingo', 'Tarde']</t>
+  </si>
+  <si>
+    <t>menos verano</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>[Aire acondicionado]</t>
+  </si>
+  <si>
+    <t>MJS</t>
+  </si>
+  <si>
+    <t>Menores en la vivienda [Menores en la vivienda]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [Ocupados/trabajando]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tareas del hogar]</t>
+  </si>
+  <si>
+    <t>[Parados/as]</t>
+  </si>
+  <si>
+    <t>[Jubilados/as - pensionistas de algún tipo]</t>
+  </si>
+  <si>
+    <t>[Estudiantes]</t>
+  </si>
+  <si>
+    <t>cluster</t>
+  </si>
+  <si>
+    <t>¿Tienes calefacción eléctrica?</t>
+  </si>
+  <si>
+    <t>No, Estufas eléctricas</t>
+  </si>
+  <si>
+    <t>Radiadores eléctricos</t>
+  </si>
+  <si>
+    <t>Bomba de calor, Acumuladores eléctricos</t>
+  </si>
+  <si>
+    <t>No, Bomba de calor</t>
   </si>
 </sst>
 </file>
@@ -333,7 +700,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -537,6 +904,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -698,14 +1071,33 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1080,11 +1472,2166 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6732A438-33AA-41FF-ACDC-B7B119E1E5AD}">
+  <dimension ref="A1:AD63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P23" sqref="A1:P23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="23" max="23" width="19.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K5" s="13">
+        <v>45413</v>
+      </c>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="13">
+        <v>45566</v>
+      </c>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>109</v>
+      </c>
+      <c r="H6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K6" t="s">
+        <v>108</v>
+      </c>
+      <c r="L6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" t="s">
+        <v>109</v>
+      </c>
+      <c r="N6" t="s">
+        <v>108</v>
+      </c>
+      <c r="O6" t="s">
+        <v>13</v>
+      </c>
+      <c r="P6" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" t="s">
+        <v>154</v>
+      </c>
+      <c r="W6" t="s">
+        <v>163</v>
+      </c>
+      <c r="X6" s="11"/>
+      <c r="Y6" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" s="11">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>3</v>
+      </c>
+      <c r="G7" s="4">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>3</v>
+      </c>
+      <c r="J7" s="1">
+        <v>3</v>
+      </c>
+      <c r="K7" s="11">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="T7" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="U7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="V7" t="s">
+        <v>152</v>
+      </c>
+      <c r="W7" t="s">
+        <v>164</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="11">
+        <v>0</v>
+      </c>
+      <c r="C8" s="11">
+        <v>1</v>
+      </c>
+      <c r="D8" s="11">
+        <v>3</v>
+      </c>
+      <c r="E8" s="4">
+        <v>3</v>
+      </c>
+      <c r="F8" s="4">
+        <v>3</v>
+      </c>
+      <c r="G8" s="4">
+        <v>3</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2">
+        <v>2</v>
+      </c>
+      <c r="J8" s="2">
+        <v>2</v>
+      </c>
+      <c r="K8" s="11">
+        <v>2</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1</v>
+      </c>
+      <c r="P8" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" t="s">
+        <v>152</v>
+      </c>
+      <c r="W8" t="s">
+        <v>165</v>
+      </c>
+      <c r="X8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y8">
+        <v>2</v>
+      </c>
+      <c r="Z8">
+        <v>2</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2</v>
+      </c>
+      <c r="G9" s="2">
+        <v>2</v>
+      </c>
+      <c r="H9" s="11">
+        <v>3</v>
+      </c>
+      <c r="I9" s="2">
+        <v>2</v>
+      </c>
+      <c r="J9" s="2">
+        <v>2</v>
+      </c>
+      <c r="K9" s="2">
+        <v>3</v>
+      </c>
+      <c r="L9" s="2">
+        <v>2</v>
+      </c>
+      <c r="M9" s="2">
+        <v>2</v>
+      </c>
+      <c r="N9" s="2">
+        <v>2</v>
+      </c>
+      <c r="O9" s="2">
+        <v>2</v>
+      </c>
+      <c r="P9" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" t="s">
+        <v>153</v>
+      </c>
+      <c r="W9" t="s">
+        <v>152</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>1</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" s="11">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>3</v>
+      </c>
+      <c r="G10" s="4">
+        <v>3</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>3</v>
+      </c>
+      <c r="J10" s="1">
+        <v>3</v>
+      </c>
+      <c r="K10" s="11">
+        <v>2</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1</v>
+      </c>
+      <c r="P10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="T10" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="U10" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="V10" t="s">
+        <v>153</v>
+      </c>
+      <c r="W10" t="s">
+        <v>152</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+      <c r="E11" s="4">
+        <v>3</v>
+      </c>
+      <c r="F11" s="4">
+        <v>3</v>
+      </c>
+      <c r="G11" s="4">
+        <v>3</v>
+      </c>
+      <c r="H11" s="14">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>3</v>
+      </c>
+      <c r="J11" s="1">
+        <v>3</v>
+      </c>
+      <c r="K11" s="11">
+        <v>2</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+      <c r="P11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="T11" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="U11" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="V11" t="s">
+        <v>152</v>
+      </c>
+      <c r="W11" t="s">
+        <v>152</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="4">
+        <v>3</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>2</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <v>1</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4">
+        <v>3</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0</v>
+      </c>
+      <c r="P12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="T12" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="U12" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="V12" t="s">
+        <v>153</v>
+      </c>
+      <c r="W12" t="s">
+        <v>152</v>
+      </c>
+      <c r="X12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="11">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>3</v>
+      </c>
+      <c r="G13" s="4">
+        <v>3</v>
+      </c>
+      <c r="H13" s="11">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3">
+        <v>1</v>
+      </c>
+      <c r="K13" s="11">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>3</v>
+      </c>
+      <c r="M13" s="3">
+        <v>3</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1</v>
+      </c>
+      <c r="P13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="T13" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="U13" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="V13" t="s">
+        <v>152</v>
+      </c>
+      <c r="W13" t="s">
+        <v>152</v>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="4">
+        <v>3</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>2</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <v>1</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
+        <v>3</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0</v>
+      </c>
+      <c r="P14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="T14" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="U14" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="V14" t="s">
+        <v>153</v>
+      </c>
+      <c r="W14" t="s">
+        <v>152</v>
+      </c>
+      <c r="X14" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="4">
+        <v>2</v>
+      </c>
+      <c r="AC14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+      <c r="H15" s="11">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1</v>
+      </c>
+      <c r="K15" s="11">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
+        <v>1</v>
+      </c>
+      <c r="P15" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="T15" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="U15" s="11"/>
+      <c r="V15" t="s">
+        <v>153</v>
+      </c>
+      <c r="W15" t="s">
+        <v>152</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>2</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" s="11">
+        <v>0</v>
+      </c>
+      <c r="C16" s="11">
+        <v>3</v>
+      </c>
+      <c r="D16" s="11">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>3</v>
+      </c>
+      <c r="F16" s="4">
+        <v>3</v>
+      </c>
+      <c r="G16" s="4">
+        <v>3</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>3</v>
+      </c>
+      <c r="J16" s="1">
+        <v>3</v>
+      </c>
+      <c r="K16" s="11">
+        <v>2</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
+        <v>3</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0</v>
+      </c>
+      <c r="P16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" t="s">
+        <v>152</v>
+      </c>
+      <c r="W16" t="s">
+        <v>165</v>
+      </c>
+      <c r="X16" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y16">
+        <v>1</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
+      <c r="H17" s="11">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
+        <v>1</v>
+      </c>
+      <c r="P17" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" t="s">
+        <v>153</v>
+      </c>
+      <c r="W17" t="s">
+        <v>152</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>2</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3</v>
+      </c>
+      <c r="E18" s="11">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
+        <v>3</v>
+      </c>
+      <c r="G18" s="4">
+        <v>3</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>3</v>
+      </c>
+      <c r="J18" s="1">
+        <v>3</v>
+      </c>
+      <c r="K18" s="11">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1</v>
+      </c>
+      <c r="M18" s="1">
+        <v>1</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1">
+        <v>1</v>
+      </c>
+      <c r="P18" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="T18" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="U18" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="V18" t="s">
+        <v>152</v>
+      </c>
+      <c r="W18" t="s">
+        <v>152</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="11">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
+        <v>1</v>
+      </c>
+      <c r="J19" s="3">
+        <v>1</v>
+      </c>
+      <c r="K19" s="11">
+        <v>0</v>
+      </c>
+      <c r="L19" s="3">
+        <v>3</v>
+      </c>
+      <c r="M19" s="3">
+        <v>3</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0</v>
+      </c>
+      <c r="O19" s="3">
+        <v>3</v>
+      </c>
+      <c r="P19" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="T19" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="U19" t="s">
+        <v>45</v>
+      </c>
+      <c r="V19" t="s">
+        <v>153</v>
+      </c>
+      <c r="W19" t="s">
+        <v>167</v>
+      </c>
+      <c r="X19" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>2</v>
+      </c>
+      <c r="Z19" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" s="4">
+        <v>3</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
+        <v>3</v>
+      </c>
+      <c r="F20" s="4">
+        <v>3</v>
+      </c>
+      <c r="G20" s="4">
+        <v>3</v>
+      </c>
+      <c r="H20" s="4">
+        <v>2</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <v>1</v>
+      </c>
+      <c r="L20" s="4">
+        <v>0</v>
+      </c>
+      <c r="M20" s="4">
+        <v>0</v>
+      </c>
+      <c r="N20" s="4">
+        <v>3</v>
+      </c>
+      <c r="O20" s="4">
+        <v>0</v>
+      </c>
+      <c r="P20" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="T20" s="11"/>
+      <c r="V20" t="s">
+        <v>152</v>
+      </c>
+      <c r="W20" t="s">
+        <v>152</v>
+      </c>
+      <c r="X20" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y20" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" s="11">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
+        <v>3</v>
+      </c>
+      <c r="G21" s="4">
+        <v>3</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2">
+        <v>2</v>
+      </c>
+      <c r="J21" s="2">
+        <v>2</v>
+      </c>
+      <c r="K21" s="11">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1">
+        <v>1</v>
+      </c>
+      <c r="P21" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="T21" s="11"/>
+      <c r="V21" t="s">
+        <v>152</v>
+      </c>
+      <c r="W21" t="s">
+        <v>164</v>
+      </c>
+      <c r="X21" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y21">
+        <v>1</v>
+      </c>
+      <c r="Z21">
+        <v>1</v>
+      </c>
+      <c r="AA21">
+        <v>1</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>2</v>
+      </c>
+      <c r="AD21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="4">
+        <v>1</v>
+      </c>
+      <c r="L22" s="4">
+        <v>0</v>
+      </c>
+      <c r="M22" s="4">
+        <v>0</v>
+      </c>
+      <c r="N22" s="4">
+        <v>3</v>
+      </c>
+      <c r="O22" s="4">
+        <v>0</v>
+      </c>
+      <c r="P22" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="T22" s="11"/>
+      <c r="V22" t="s">
+        <v>153</v>
+      </c>
+      <c r="W22" t="s">
+        <v>152</v>
+      </c>
+      <c r="X22" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y22" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1">
+        <v>1</v>
+      </c>
+      <c r="P23" s="1">
+        <v>1</v>
+      </c>
+      <c r="S23" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="V23" t="s">
+        <v>152</v>
+      </c>
+      <c r="W23" t="s">
+        <v>152</v>
+      </c>
+      <c r="X23" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y23">
+        <v>2</v>
+      </c>
+      <c r="Z23">
+        <v>2</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="V31" t="s">
+        <v>153</v>
+      </c>
+      <c r="W31" t="s">
+        <v>166</v>
+      </c>
+      <c r="X31" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y31">
+        <v>2</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="W34" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="W37" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>108</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="K38" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>108</v>
+      </c>
+      <c r="K39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>124</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>125</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>126</v>
+      </c>
+      <c r="B44" s="3"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>127</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+    </row>
+    <row r="49" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+    </row>
+    <row r="50" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+    </row>
+    <row r="51" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
+    </row>
+    <row r="52" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="11"/>
+    </row>
+    <row r="53" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
+    </row>
+    <row r="54" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="11"/>
+    </row>
+    <row r="55" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="11"/>
+      <c r="P55" s="11"/>
+    </row>
+    <row r="56" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
+    </row>
+    <row r="57" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="11"/>
+      <c r="P57" s="11"/>
+    </row>
+    <row r="58" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="11"/>
+    </row>
+    <row r="59" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="11"/>
+      <c r="O59" s="11"/>
+      <c r="P59" s="11"/>
+    </row>
+    <row r="60" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="11"/>
+      <c r="P60" s="11"/>
+    </row>
+    <row r="61" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="11"/>
+      <c r="P61" s="11"/>
+    </row>
+    <row r="62" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="11"/>
+      <c r="O62" s="11"/>
+      <c r="P62" s="11"/>
+    </row>
+    <row r="63" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="11"/>
+      <c r="N63" s="11"/>
+      <c r="O63" s="11"/>
+      <c r="P63" s="11"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:G6">
+    <sortCondition ref="A6"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC3D4ED2-4B7B-467E-AFEA-3B31386B6082}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1092,221 +3639,214 @@
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="60.85546875" customWidth="1"/>
     <col min="5" max="5" width="48" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="4"/>
+      <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="4"/>
+      <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5">
-        <v>3</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="4">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="5">
-        <v>0</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="5">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -1327,7 +3867,7 @@
       <c r="F8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="5" t="s">
         <v>37</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -1336,7 +3876,7 @@
       <c r="I8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="5" t="s">
         <v>29</v>
       </c>
       <c r="K8" s="1" t="s">
@@ -1368,7 +3908,7 @@
       <c r="H9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -1395,7 +3935,7 @@
       <c r="F10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="5" t="s">
         <v>37</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -1410,79 +3950,79 @@
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="3">
-        <v>2</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="C11" s="2">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="3">
-        <v>2</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="3">
-        <v>2</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:K1" xr:uid="{BC3D4ED2-4B7B-467E-AFEA-3B31386B6082}">
@@ -1492,4 +4032,1774 @@
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CCBE99F-B25C-419F-B84B-E68A6888B202}">
+  <dimension ref="A1:N13"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="58.7109375" customWidth="1"/>
+    <col min="4" max="4" width="60.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+    </row>
+    <row r="2" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:N1" xr:uid="{5CCBE99F-B25C-419F-B84B-E68A6888B202}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N13">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19C4C80F-5A90-455F-BFED-FA5995D9E20A}">
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="58.7109375" customWidth="1"/>
+    <col min="4" max="4" width="60.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="3">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="3">
+        <v>3</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="1:14" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13"/>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C14" s="6"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="6"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="6"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:N1" xr:uid="{19C4C80F-5A90-455F-BFED-FA5995D9E20A}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N13">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C55B8750-0333-451C-8A55-36E5686E665E}">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="58.7109375" customWidth="1"/>
+    <col min="4" max="4" width="60.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="2">
+        <v>3</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12"/>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" t="s">
+        <v>88</v>
+      </c>
+      <c r="L12" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13"/>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:N1" xr:uid="{5CCBE99F-B25C-419F-B84B-E68A6888B202}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M13">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A70F37-009A-49FE-92C5-906FE417A9E7}">
+  <dimension ref="A1:O13"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="58.7109375" customWidth="1"/>
+    <col min="4" max="4" width="60.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" s="3">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="3">
+        <v>3</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="4">
+        <v>3</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:N1" xr:uid="{5CCBE99F-B25C-419F-B84B-E68A6888B202}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N13">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>